--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value309.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value309.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9735292201265194</v>
+        <v>1.12404727935791</v>
       </c>
       <c r="B1">
-        <v>1.058914385502024</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.239243833749081</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.066306630901797</v>
+        <v>1.735024333000183</v>
       </c>
       <c r="E1">
-        <v>5.322666883990722</v>
+        <v>1.126239418983459</v>
       </c>
     </row>
   </sheetData>
